--- a/simulations/cleaned_inclusion_exclusion/van_de_Schoot_2017 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/van_de_Schoot_2017 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,10 +713,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.6003521126760564</v>
+        <v>0.8886443661971831</v>
       </c>
       <c r="I3">
-        <v>0.3106793281472656</v>
+        <v>0.02697572826874109</v>
       </c>
       <c r="J3">
-        <v>-0.1052631578947368</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="K3">
-        <v>1419.421052631579</v>
+        <v>141.0526315789474</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -755,34 +755,34 @@
         <v>34</v>
       </c>
       <c r="Q3">
-        <v>1325</v>
+        <v>56</v>
       </c>
       <c r="R3">
-        <v>1359</v>
+        <v>78</v>
       </c>
       <c r="S3">
-        <v>1391</v>
+        <v>110</v>
       </c>
       <c r="T3">
-        <v>1409</v>
+        <v>122</v>
       </c>
       <c r="U3">
-        <v>1428</v>
+        <v>151</v>
       </c>
       <c r="V3">
-        <v>3181</v>
+        <v>4450</v>
       </c>
       <c r="W3">
-        <v>3147</v>
+        <v>4428</v>
       </c>
       <c r="X3">
-        <v>3115</v>
+        <v>4396</v>
       </c>
       <c r="Y3">
-        <v>3097</v>
+        <v>4384</v>
       </c>
       <c r="Z3">
-        <v>3078</v>
+        <v>4355</v>
       </c>
       <c r="AA3">
         <v>35</v>
@@ -800,19 +800,19 @@
         <v>4</v>
       </c>
       <c r="AF3">
-        <v>0.705948</v>
+        <v>0.987572</v>
       </c>
       <c r="AG3">
-        <v>0.698402</v>
+        <v>0.98269</v>
       </c>
       <c r="AH3">
-        <v>0.6913</v>
+        <v>0.975588</v>
       </c>
       <c r="AI3">
-        <v>0.687306</v>
+        <v>0.972925</v>
       </c>
       <c r="AJ3">
-        <v>0.6830889999999999</v>
+        <v>0.966489</v>
       </c>
     </row>
   </sheetData>
